--- a/homework/HW_050_Quads_constraints_01.xlsx
+++ b/homework/HW_050_Quads_constraints_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5A243A-3A0D-2E4C-8C25-551E6CBD861F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECBF571-33A4-DD46-9940-26A61C1E2213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="-19180" windowWidth="21000" windowHeight="17860" activeTab="1" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="10" r:id="rId1"/>
@@ -860,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5372EA-2666-7649-AF18-437C6C265CD3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECFFE2-26E8-0B4F-A13C-D6C167687420}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1163,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937EE2FC-E54D-ED40-A737-1A46329618D0}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1307,32 +1307,8 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/homework/HW_050_Quads_constraints_01.xlsx
+++ b/homework/HW_050_Quads_constraints_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECBF571-33A4-DD46-9940-26A61C1E2213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E43EE8-7DDB-AE45-B93F-11F26860563F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="10" r:id="rId1"/>
@@ -142,15 +142,9 @@
     <t>How much do we profit for each extra hour in Plant 1?</t>
   </si>
   <si>
-    <t>At what point do we stop profiting that amount?</t>
-  </si>
-  <si>
     <t>Extra Profit for that one hour</t>
   </si>
   <si>
-    <t>Why does it change at that value?</t>
-  </si>
-  <si>
     <t>Total Profit</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>complete this table</t>
+  </si>
+  <si>
+    <t>Beyond 17 hrs, when does adding 1 no longer add $1 to profit?</t>
+  </si>
+  <si>
+    <t>Why does it stop adding $1 to profit at that number?</t>
   </si>
 </sst>
 </file>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECFFE2-26E8-0B4F-A13C-D6C167687420}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1"/>
       <c r="H3" s="3"/>
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -968,7 +968,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -989,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1104,7 +1104,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="15"/>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1143,13 +1143,13 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937EE2FC-E54D-ED40-A737-1A46329618D0}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1215,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
